--- a/Reportes 2/Acumulado por Conceptos/documentos/Evidencia Salida Reporte Acumulado por concepto.xlsx
+++ b/Reportes 2/Acumulado por Conceptos/documentos/Evidencia Salida Reporte Acumulado por concepto.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Terceros\fortia\Reportes 2\Acumulado por Conceptos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB93D7F3-790B-4A36-A0C2-CAB12EDEDB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7EAED-C623-49D4-9272-9F24C01D8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22E0D430-5255-438C-94EA-AFEF0DC16B87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{497491AB-DBA6-436B-8610-D137B6451C47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Detalle" sheetId="15" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,300 +36,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="101">
+  <si>
+    <t>NOM_TIPO</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t>SALDO</t>
+  </si>
+  <si>
+    <t>SALDO_EXENTO</t>
+  </si>
+  <si>
+    <t>SALDO_GRAVADO</t>
+  </si>
+  <si>
+    <t>TITULO_REP</t>
+  </si>
+  <si>
+    <t>NOMINA</t>
+  </si>
+  <si>
+    <t>FECHA_INICIO</t>
+  </si>
+  <si>
+    <t>FECHA_TERMINO</t>
+  </si>
+  <si>
+    <t>TRABAJADORES</t>
+  </si>
+  <si>
+    <t>PERCEPCIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TOTAL NOMINA POR UBICACION, C.COSTO Y DEPARTAMENTO</t>
+  </si>
   <si>
     <t xml:space="preserve">SUELDO                        </t>
   </si>
   <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACACIONES                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA VACACIONAL              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACACIONES PROPORCIONALES     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACACIONES PENDIENTES         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORAS EXTRAS DOBLES           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA DOMINICAL               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIOS DE ASISTENCIA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIOS PUNTUALIDAD           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCANSO  TRABAJADO           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA FESTIVO TRABAJADO         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPENSACION EXTRAORDINARIA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPENSACION COMPLEMENTO      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPENSACION D                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISIONES                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONO                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCENTIVOS                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONO PRODUCTIVIDAD            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUARTOS EXTRA                 </t>
+  </si>
+  <si>
+    <t>AYUDA DE TRANSPORTE COMPLEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONDO DE AHORRO EMPRESA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSIDIO POR INCAPACIDAD      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUINALDO                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** VALES DESPENSA                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAS PERIODO ANTERIOR         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERMISO CON GOCE              </t>
+  </si>
+  <si>
+    <t>SUBSIDIO PARA EL EMPLEO PAGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISR RETENIDO EN EXCESO        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV. CREDITO INFONAVIT        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV. CREDITO FONACOT          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV. CAJA DE AHORRO           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRATIFICACION POR SEPARACION  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA DE ANTIGUEDAD           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 DIAS INDEMNIZACION         </t>
+  </si>
+  <si>
+    <t>DEDUCCIONES</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISR                           </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VACACIONES                    </t>
-  </si>
-  <si>
     <t xml:space="preserve">IMSS                          </t>
   </si>
   <si>
-    <t xml:space="preserve">DIA FESTIVO TRABAJADO         </t>
+    <t xml:space="preserve">PENSION ALIMENTICIA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSION ALIMENTICIA 2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDITO FONACOT               </t>
   </si>
   <si>
     <t xml:space="preserve">AMORTIZACION DE INFONAVIT     </t>
   </si>
   <si>
-    <t xml:space="preserve">COMPENSACION EXTRAORDINARIA   </t>
-  </si>
-  <si>
     <t>APORTACION EMPRESA FONDO DE AH</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPENSACION D                </t>
-  </si>
-  <si>
     <t>APORTACION EMPLEADO FONDO DE A</t>
   </si>
   <si>
-    <t xml:space="preserve">FONDO DE AHORRO EMPRESA       </t>
+    <t xml:space="preserve">PRESTAMO CAJA DE AHORRO       </t>
   </si>
   <si>
     <t xml:space="preserve">DESPENSA                      </t>
   </si>
   <si>
+    <t xml:space="preserve">DIFERENCIA INFONAVIT          </t>
+  </si>
+  <si>
     <t xml:space="preserve">AYUDA DEFUNCION               </t>
   </si>
   <si>
-    <t xml:space="preserve">PRIMA VACACIONAL              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSIDIO POR INCAPACIDAD      </t>
+    <t xml:space="preserve">CONSUMOS                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACHILLERATO                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUESTO INDEMNIZACION        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALTAS                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERMISO SIN GOCE              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSPENSION                    </t>
   </si>
   <si>
     <t xml:space="preserve">INCAPACIDAD EG                </t>
   </si>
   <si>
-    <t xml:space="preserve">VACACIONES PROPORCIONALES     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VACACIONES PENDIENTES         </t>
-  </si>
-  <si>
-    <t>SUBSIDIO PARA EL EMPLEO PAGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREDITO FONACOT               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESTAMO CAJA DE AHORRO       </t>
+    <t xml:space="preserve">INCAPACIDAD RT                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCAPACIDAD MAT               </t>
   </si>
   <si>
     <t xml:space="preserve">CAJA DE AHORRO                </t>
   </si>
   <si>
-    <t xml:space="preserve">PRIMA DOMINICAL               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENSION ALIMENTICIA           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIOS DE ASISTENCIA         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONO PRODUCTIVIDAD            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUARTOS EXTRA                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CUOTA SINDICAL                </t>
   </si>
   <si>
+    <t xml:space="preserve">CUOTA SINDICAL EXTRAORDINARIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">SEGURO DE VIDA SIND           </t>
   </si>
   <si>
-    <t xml:space="preserve">FALTAS                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPENSACION COMPLEMENTO      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUINALDO                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV. CAJA DE AHORRO           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMA DE ANTIGUEDAD           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 DIAS INDEMNIZACION         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMISO CON GOCE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSUMOS                      </t>
+    <t xml:space="preserve">MULTA SINDICATO               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS DESCUENTOS              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRAS DED FUN Y E             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUELDOS PAGADOS DE MAS        </t>
   </si>
   <si>
     <t xml:space="preserve">AGUINALDO PAGADO DE MAS       </t>
   </si>
   <si>
-    <t xml:space="preserve">INCAPACIDAD MAT               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMISO SIN GOCE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCAPACIDAD RT                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCANSO  TRABAJADO           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUELDOS PAGADOS DE MAS        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAS PERIODO ANTERIOR         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACHILLERATO                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMISIONES                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTROS DESCUENTOS              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HORAS EXTRAS DOBLES           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV. CREDITO FONACOT          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFERENCIA INFONAVIT          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEV. CREDITO INFONAVIT        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCENTIVOS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUESTO INDEMNIZACION        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONO                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSPENSION                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIOS PUNTUALIDAD           </t>
-  </si>
-  <si>
-    <t>AYUDA DE TRANSPORTE COMPLEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUOTA SINDICAL EXTRAORDINARIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTA SINDICATO               </t>
+    <t>PROVISIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAS PERIODO ANTERIOR AUTOM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP SOBRE NOMINA              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PROVISION IMSS PATRONAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PROVISION RCV           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PROVISION INFONAVIT     </t>
+  </si>
+  <si>
+    <t>TOTAL PERCEPCIONES</t>
+  </si>
+  <si>
+    <t>TOTAL DEDUCCIONES</t>
+  </si>
+  <si>
+    <t>TOTAL PROVISIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     NETO  A PAGAR</t>
+  </si>
+  <si>
+    <t>NOMINAS: FINIQUITO-202501, FINIQUITO-202502, NORMAL-202501, NORMAL-202502, PTU-202502</t>
   </si>
   <si>
     <t xml:space="preserve">BONO FIDELIDAD                </t>
   </si>
   <si>
-    <t xml:space="preserve">OTRAS DED FUN Y E             </t>
+    <t xml:space="preserve">PTU                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** VALES DESPENSA FINIQUITO      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REEMBOLSO CUOTAS SINDICALES   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISPT ART 142                  </t>
   </si>
   <si>
     <t xml:space="preserve">PRESTAMO CAJA DE AHORRO 2     </t>
   </si>
   <si>
-    <t xml:space="preserve">PENSION ALIMENTICIA 2         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRATIFICACION POR SEPARACION  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR RETENIDO EN EXCESO        </t>
-  </si>
-  <si>
     <t xml:space="preserve">DESCUENTO ACCESORIOS          </t>
   </si>
   <si>
-    <t>SALDO</t>
-  </si>
-  <si>
-    <t>SALDO_EXENTO</t>
-  </si>
-  <si>
-    <t>SALDO_GRAVADO</t>
-  </si>
-  <si>
     <t xml:space="preserve">GASTOS MEDICOS MAYORES        </t>
   </si>
   <si>
-    <t xml:space="preserve">REEMBOLSO CUOTAS SINDICALES   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMP SOBRE NOMINA              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL PROVISION IMSS PATRONAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL PROVISION RCV           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL PROVISION INFONAVIT     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAS PERIODO ANTERIOR AUTOM   </t>
-  </si>
-  <si>
-    <t>PERCEPCIONES</t>
-  </si>
-  <si>
-    <t>DEDUCCIONES</t>
-  </si>
-  <si>
-    <t>PROVISIONES</t>
-  </si>
-  <si>
-    <t>TOTAL PERCEPCIONES</t>
-  </si>
-  <si>
-    <t>TOTAL DEDUCCIONES</t>
-  </si>
-  <si>
-    <t>TOTAL PROVISIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     NETO  A PAGAR</t>
-  </si>
-  <si>
-    <t>NOM_TIPO</t>
-  </si>
-  <si>
-    <t>CONCEPTO</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>IMPORTE</t>
-  </si>
-  <si>
-    <t>TITULO_REP</t>
-  </si>
-  <si>
-    <t>NOMINA</t>
-  </si>
-  <si>
-    <t>FECHA_INICIO</t>
-  </si>
-  <si>
-    <t>FECHA_TERMINO</t>
-  </si>
-  <si>
-    <t>TRABAJADORES</t>
-  </si>
-  <si>
-    <t>TOTAL NOMINA POR UBICACION, C.COSTO Y DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>NOMINAS: FINIQUITO-202501, FINIQUITO-202502, NORMAL-202501, NORMAL-202502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALES DESPENSA                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALES DESPENSA FINIQUITO      </t>
+    <t xml:space="preserve">*** TOTAL VALES DESPENSA </t>
   </si>
 </sst>
 </file>
@@ -367,24 +376,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -398,21 +397,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3C5C70D-A736-4A96-8252-946923651C1A}" name="Tabla2" displayName="Tabla2" ref="A1:L83" totalsRowShown="0">
-  <autoFilter ref="A1:L83" xr:uid="{E3C5C70D-A736-4A96-8252-946923651C1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78C9C27E-6B59-46F5-97D2-25A2D666C509}" name="Tabla1" displayName="Tabla1" ref="A1:L87" totalsRowShown="0">
+  <autoFilter ref="A1:L87" xr:uid="{78C9C27E-6B59-46F5-97D2-25A2D666C509}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0F06A6C9-FE9A-4676-A846-273B886304F1}" name="NOM_TIPO"/>
-    <tableColumn id="2" xr3:uid="{69E40D47-5D8F-4BB4-8F0A-D6DA02F6027A}" name="CONCEPTO"/>
-    <tableColumn id="3" xr3:uid="{04C2078D-7A41-442A-B3E7-5DF1B1445AEC}" name="Descripcion"/>
-    <tableColumn id="4" xr3:uid="{609069C6-62FD-4B7F-ADA1-FF4F55337A38}" name="IMPORTE" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{19BCF2DC-DC22-4CDC-BA09-7885DD6A5B3F}" name="SALDO"/>
-    <tableColumn id="6" xr3:uid="{E98E9910-808A-4FF8-A6BD-D29F6D6DADFF}" name="SALDO_EXENTO"/>
-    <tableColumn id="7" xr3:uid="{2AC4A30A-638E-4824-A45C-5692073E9F77}" name="SALDO_GRAVADO"/>
-    <tableColumn id="8" xr3:uid="{8BC89CB7-9EC5-403D-8ED7-D614D236CCE2}" name="TITULO_REP"/>
-    <tableColumn id="9" xr3:uid="{90651A07-49B6-4DC0-A8CE-E876959B6AE7}" name="NOMINA" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{054B0CF1-5E65-4A96-A9D4-16AED5BAD874}" name="FECHA_INICIO" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{B4738254-5C6A-4567-B369-5C52152228E4}" name="FECHA_TERMINO"/>
-    <tableColumn id="12" xr3:uid="{D8FCF415-8E2A-4B98-83FE-3745E4BF3E24}" name="TRABAJADORES"/>
+    <tableColumn id="1" xr3:uid="{28EDB3DF-97F2-469A-9678-1599AB375F33}" name="NOM_TIPO"/>
+    <tableColumn id="2" xr3:uid="{73141B39-BF23-40F8-824A-AC2BB8168BB0}" name="CONCEPTO"/>
+    <tableColumn id="3" xr3:uid="{31026D92-1512-4522-9F74-B0D46A7DA60C}" name="Descripcion"/>
+    <tableColumn id="4" xr3:uid="{CDC8A38C-0B7B-4C37-9751-09ADB3385712}" name="IMPORTE"/>
+    <tableColumn id="5" xr3:uid="{918ABDC2-865C-4268-A4E7-ED4B73FB308E}" name="SALDO"/>
+    <tableColumn id="6" xr3:uid="{8F966137-348A-4CF5-80BE-990C44C43016}" name="SALDO_EXENTO"/>
+    <tableColumn id="7" xr3:uid="{E33939BC-69BF-432C-9B2C-0A66124D7407}" name="SALDO_GRAVADO"/>
+    <tableColumn id="8" xr3:uid="{F31CA119-6F35-488C-AFCA-CDD8279EFB8E}" name="TITULO_REP"/>
+    <tableColumn id="9" xr3:uid="{C9C822D4-D288-43CB-8A3F-BC12DCA46F7C}" name="NOMINA"/>
+    <tableColumn id="10" xr3:uid="{7242B782-9CED-4E34-974F-59A17484B667}" name="FECHA_INICIO"/>
+    <tableColumn id="11" xr3:uid="{D56700DF-12A3-4F79-A195-B965F394A505}" name="FECHA_TERMINO"/>
+    <tableColumn id="12" xr3:uid="{FB515749-7B31-444E-B89C-DB8417084640}" name="TRABAJADORES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -734,116 +733,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D47D470-1FEB-4BD0-929F-2DE21CA254F3}">
-  <dimension ref="A1:L83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47E39D0-A5E7-4B8C-9DF6-6DB3A8BD5B10}">
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1">
         <v>45658</v>
       </c>
-      <c r="K2" s="2">
-        <v>45703</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2154</v>
+      <c r="K2" s="1">
+        <v>45716</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1836</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>28272898.140000001</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>37375520.93</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,37 +851,37 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>28272898.140000001</v>
+      <c r="G3" s="3">
+        <v>37375520.93</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>471510.61</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>607230.18000000005</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,75 +889,75 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>471510.61</v>
+      <c r="G4" s="3">
+        <v>607230.18000000005</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>617658.55000000005</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>784795.7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>358518.33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>259140.22</v>
+      <c r="F5" s="3">
+        <v>439785.64</v>
+      </c>
+      <c r="G5" s="3">
+        <v>345010.06</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>537343.72</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>649059.24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,37 +965,37 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>537343.72</v>
+      <c r="G6" s="3">
+        <v>649059.24</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1004</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>351269.86</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>389947.68</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,113 +1003,113 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>351269.86</v>
+      <c r="G7" s="3">
+        <v>389947.68</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1005</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1">
-        <v>264357.82</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>338666.65</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
-        <v>120830.46</v>
-      </c>
-      <c r="G8" s="1">
-        <v>143527.35999999999</v>
+      <c r="F8" s="3">
+        <v>154782.69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>183883.96</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1007</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>569628.65</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>730753.04</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>537717.21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>31911.439999999999</v>
+      <c r="F9" s="3">
+        <v>688889.35</v>
+      </c>
+      <c r="G9" s="3">
+        <v>41863.69</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1008</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <v>39086.94</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>66761.95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,37 +1117,37 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>39086.94</v>
+      <c r="G10" s="3">
+        <v>66761.95</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1009</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1">
-        <v>24750</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>48458.37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,113 +1155,113 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>24750</v>
+      <c r="G11" s="3">
+        <v>48458.37</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1010</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1">
-        <v>148817.44</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>182658.06</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
-        <v>46254.239999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>102563.2</v>
+      <c r="F12" s="3">
+        <v>61410.29</v>
+      </c>
+      <c r="G12" s="3">
+        <v>121247.77</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1011</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1317601.58</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1345551.34</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
-        <v>624165.92000000004</v>
-      </c>
-      <c r="G13" s="1">
-        <v>693435.66</v>
+      <c r="F13" s="3">
+        <v>638082.78</v>
+      </c>
+      <c r="G13" s="3">
+        <v>707468.56</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1013</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>760393.47</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="3">
+        <v>820284.66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,37 +1269,37 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>760393.47</v>
+      <c r="G14" s="3">
+        <v>820284.66</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>290047.98</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
+        <v>361237.96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,37 +1307,37 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>290047.98</v>
+      <c r="G15" s="3">
+        <v>361237.96</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25.1</v>
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>37.72</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1346,36 +1346,36 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.1</v>
+        <v>37.72</v>
       </c>
       <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1018</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1">
-        <v>852952.41</v>
+        <v>30</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1131610.45</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,37 +1383,37 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>852952.41</v>
+      <c r="G17" s="3">
+        <v>1131610.45</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>1019</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1">
-        <v>374753.13</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>539599.81999999995</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,37 +1421,37 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>374753.13</v>
+      <c r="G18" s="3">
+        <v>539599.81999999995</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>1020</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1">
-        <v>66075.600000000006</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="3">
+        <v>123787.2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,37 +1459,37 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>66075.600000000006</v>
+      <c r="G19" s="3">
+        <v>123787.2</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1021</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1">
-        <v>326056.59999999998</v>
+        <v>33</v>
+      </c>
+      <c r="D20" s="3">
+        <v>430606.6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,36 +1497,36 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>326056.59999999998</v>
+      <c r="G20" s="3">
+        <v>430606.6</v>
       </c>
       <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>1026</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3">
         <v>7000</v>
       </c>
       <c r="E21">
@@ -1535,37 +1535,37 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>7000</v>
       </c>
       <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>1027</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>829370</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1314775</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1573,37 +1573,37 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>829370</v>
+      <c r="G22" s="3">
+        <v>1314775</v>
       </c>
       <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>1031</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="1">
-        <v>40004</v>
+        <v>35</v>
+      </c>
+      <c r="D23" s="3">
+        <v>78346</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1611,75 +1611,75 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>40004</v>
+      <c r="G23" s="3">
+        <v>78346</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1704165.65</v>
+        <v>93</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2146.9499999999998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>1697.1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>449.85</v>
       </c>
       <c r="H24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1">
-        <v>39452.32</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2232286.64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,113 +1687,113 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>39452.32</v>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1">
-        <v>75053.850000000006</v>
+        <v>37</v>
+      </c>
+      <c r="D26" s="3">
+        <v>51347.98</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1">
-        <v>58180.85</v>
-      </c>
-      <c r="G26" s="1">
-        <v>16873</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>51347.98</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2124221.67</v>
+        <v>38</v>
+      </c>
+      <c r="D27" s="3">
+        <v>121775</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="F27" s="3">
+        <v>101328.58</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20446.419999999998</v>
       </c>
       <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1">
-        <v>142182.9</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4292072.25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1801,37 +1801,37 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>142182.9</v>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1">
-        <v>151332.35</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>222051.12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1839,37 +1839,37 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>151332.35</v>
+      <c r="G29" s="3">
+        <v>222051.12</v>
       </c>
       <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2255.36</v>
+        <v>41</v>
+      </c>
+      <c r="D30" s="3">
+        <v>214186.45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1877,37 +1877,37 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>0</v>
+      <c r="G30" s="3">
+        <v>214186.45</v>
       </c>
       <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>2001</v>
+        <v>1051</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1628.72</v>
+        <v>94</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12377.06</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1919,33 +1919,33 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1">
-        <v>237.47</v>
+        <v>42</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1628.72</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1957,33 +1957,33 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>2052</v>
+        <v>2021</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1800.57</v>
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>237.47</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1995,33 +1995,33 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3433.17</v>
+        <v>44</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1800.57</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2033,33 +2033,33 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>2068</v>
+        <v>2053</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1">
-        <v>33324.6</v>
+        <v>45</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5092.3999999999996</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2071,33 +2071,33 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>4000</v>
+        <v>2055</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="1">
-        <v>8364</v>
+        <v>95</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5488.97</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2105,227 +2105,227 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
-        <v>8364</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>4002</v>
+        <v>2068</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1">
-        <v>123453.96</v>
+        <v>46</v>
+      </c>
+      <c r="D37" s="3">
+        <v>48624.6</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1">
-        <v>123453.96</v>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>4003</v>
+        <v>4000</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="1">
-        <v>610960.19999999995</v>
+        <v>47</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8364</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1">
-        <v>79674</v>
-      </c>
-      <c r="G38" s="1">
-        <v>531286.19999999995</v>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>8364</v>
       </c>
       <c r="H38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>4002</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="D39" s="3">
+        <v>123453.96</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>123453.96</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>2000</v>
+        <v>4003</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3644385.03</v>
+        <v>49</v>
+      </c>
+      <c r="D40" s="3">
+        <v>610960.19999999995</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="F40" s="3">
+        <v>79674</v>
+      </c>
+      <c r="G40" s="3">
+        <v>531286.19999999995</v>
       </c>
       <c r="H40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>2002</v>
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>713010.66</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L41" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="1">
-        <v>137225.48000000001</v>
+        <v>51</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4734611.59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2337,33 +2337,33 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L42" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="1">
-        <v>16240.06</v>
+        <v>52</v>
+      </c>
+      <c r="D43" s="3">
+        <v>924706.47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2375,33 +2375,33 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1">
-        <v>400160.76</v>
+        <v>53</v>
+      </c>
+      <c r="D44" s="3">
+        <v>184010.17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2413,33 +2413,33 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1642916.33</v>
+        <v>54</v>
+      </c>
+      <c r="D45" s="3">
+        <v>25117.88</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2451,33 +2451,33 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1704165.65</v>
+        <v>55</v>
+      </c>
+      <c r="D46" s="3">
+        <v>528348</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2489,33 +2489,33 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1704146.89</v>
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>48.94</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2527,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="1">
-        <v>56658.84</v>
-      </c>
-      <c r="E48" s="1">
-        <v>18253.61</v>
+        <v>56</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2150533.44</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2565,33 +2565,33 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="1">
-        <v>26525.05</v>
+        <v>57</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2232113</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2603,33 +2603,33 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1">
-        <v>37.9</v>
+        <v>58</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2232094.2400000002</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2641,36 +2641,36 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="1">
-        <v>887.67</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="D51" s="3">
+        <v>109511.3</v>
+      </c>
+      <c r="E51" s="3">
+        <v>74912.45</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2679,36 +2679,36 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1">
-        <v>263173.68</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D52" s="3">
+        <v>72962.66</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26525.05</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2717,33 +2717,33 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="1">
-        <v>12658.33</v>
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>50.52</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2755,33 +2755,33 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1260</v>
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>887.67</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2793,33 +2793,33 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="1">
-        <v>153860.48000000001</v>
+        <v>62</v>
+      </c>
+      <c r="D55" s="3">
+        <v>329401.38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2831,33 +2831,33 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>2</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="1">
-        <v>128177.84</v>
+        <v>63</v>
+      </c>
+      <c r="D56" s="3">
+        <v>12658.33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2869,33 +2869,33 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="1">
-        <v>84270.36</v>
+        <v>64</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1680</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2907,33 +2907,33 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3390.84</v>
+        <v>65</v>
+      </c>
+      <c r="D58" s="3">
+        <v>153860.48000000001</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2945,33 +2945,33 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
       </c>
       <c r="K58" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L58" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="1">
-        <v>279140.45</v>
+        <v>66</v>
+      </c>
+      <c r="D59" s="3">
+        <v>180794.29</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2983,33 +2983,33 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>2</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
       </c>
       <c r="K59" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="1">
-        <v>88411.76</v>
+        <v>67</v>
+      </c>
+      <c r="D60" s="3">
+        <v>114017.34</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3021,33 +3021,33 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="1">
-        <v>67670.990000000005</v>
+        <v>68</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6865.99</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3059,33 +3059,33 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>2</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1936095.18</v>
+        <v>69</v>
+      </c>
+      <c r="D62" s="3">
+        <v>369579.41</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3097,33 +3097,33 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="1">
-        <v>181200.86</v>
+        <v>70</v>
+      </c>
+      <c r="D63" s="3">
+        <v>124008.89</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3135,33 +3135,33 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="1">
-        <v>173100</v>
+        <v>71</v>
+      </c>
+      <c r="D64" s="3">
+        <v>89311.67</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3173,33 +3173,33 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="1">
-        <v>440</v>
+        <v>72</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2592728.16</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3211,33 +3211,33 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="1">
-        <v>14343.06</v>
+        <v>73</v>
+      </c>
+      <c r="D66" s="3">
+        <v>239427.81</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3249,33 +3249,33 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>2</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="1">
-        <v>28925</v>
+        <v>74</v>
+      </c>
+      <c r="D67" s="3">
+        <v>230827.44</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3287,33 +3287,33 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>2</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>2055</v>
+        <v>2039</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1818.99</v>
+        <v>98</v>
+      </c>
+      <c r="D68">
+        <v>825</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3325,33 +3325,33 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>2</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
       </c>
       <c r="K68" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>2057</v>
+        <v>2040</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="1">
-        <v>21886.86</v>
+        <v>75</v>
+      </c>
+      <c r="D69" s="3">
+        <v>19063.669999999998</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3363,33 +3363,33 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>2</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L69" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>2059</v>
+        <v>2041</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="1">
-        <v>7999.93</v>
+        <v>76</v>
+      </c>
+      <c r="D70" s="3">
+        <v>28925</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3401,33 +3401,33 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
       </c>
       <c r="K70" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B71">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="1">
-        <v>15215.53</v>
+        <v>77</v>
+      </c>
+      <c r="D71" s="3">
+        <v>31980.79</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3439,33 +3439,33 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>2</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L71" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="1">
-        <v>29127.23</v>
+        <v>99</v>
+      </c>
+      <c r="D72" s="3">
+        <v>14624.39</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3477,33 +3477,33 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L72" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>2079</v>
+        <v>2062</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="1">
-        <v>5614.68</v>
+        <v>78</v>
+      </c>
+      <c r="D73" s="3">
+        <v>16500.21</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3511,75 +3511,75 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="1">
-        <v>5614.68</v>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>2065</v>
+      </c>
+      <c r="C74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>2</v>
+      <c r="D74" s="3">
+        <v>38154.25</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>2</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
       </c>
       <c r="K74" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B75">
-        <v>10491</v>
+        <v>2079</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="1">
-        <v>100087.98</v>
+        <v>80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5914.37</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3591,71 +3591,71 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>2</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>3001</v>
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1331218.23</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>2</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L76" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B77">
-        <v>3002</v>
+        <v>10491</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="1">
-        <v>4120583.96</v>
+        <v>82</v>
+      </c>
+      <c r="D77" s="3">
+        <v>146713.07999999999</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3667,33 +3667,33 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>2</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>13</v>
       </c>
       <c r="K77" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" s="1">
-        <v>2581119</v>
+        <v>83</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1747912.69</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3705,33 +3705,33 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>2</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" t="s">
+        <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1852331.07</v>
+        <v>84</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5327872.7</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3743,171 +3743,285 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>2</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" t="s">
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>3003</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="1">
-        <v>41183468.390000001</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" t="s">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2828268.12</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>2</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" t="s">
+        <v>13</v>
       </c>
       <c r="K80" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>3004</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="1">
-        <v>13544142.369999999</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2399270.2599999998</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>2</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" t="s">
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9985340.2400000002</v>
+        <v>87</v>
+      </c>
+      <c r="D82" s="3">
+        <v>50976133.579999998</v>
       </c>
       <c r="E82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>2</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="1">
-        <v>27639326.02</v>
+        <v>100</v>
+      </c>
+      <c r="D83" s="3">
+        <v>4304449.3099999996</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>2</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
       </c>
       <c r="K83" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="3">
+        <v>17796144.75</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="3">
+        <v>12450036.85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="3">
+        <v>33179988.829999998</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes 2/Acumulado por Conceptos/documentos/Evidencia Salida Reporte Acumulado por concepto.xlsx
+++ b/Reportes 2/Acumulado por Conceptos/documentos/Evidencia Salida Reporte Acumulado por concepto.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Terceros\fortia\Reportes 2\Acumulado por Conceptos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A7EAED-C623-49D4-9272-9F24C01D8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170BD55A-AA27-42AE-81D4-9AFEE1D07A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{497491AB-DBA6-436B-8610-D137B6451C47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{497491AB-DBA6-436B-8610-D137B6451C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="104">
   <si>
     <t>NOM_TIPO</t>
   </si>
@@ -339,6 +340,15 @@
   </si>
   <si>
     <t xml:space="preserve">*** TOTAL VALES DESPENSA </t>
+  </si>
+  <si>
+    <t>NOMINAS: NORMAL-202503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***  INFONAVIT INFORMATIVO        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCEDENTE DE CELULAR          </t>
   </si>
 </sst>
 </file>
@@ -383,7 +393,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -412,6 +426,27 @@
     <tableColumn id="10" xr3:uid="{7242B782-9CED-4E34-974F-59A17484B667}" name="FECHA_INICIO"/>
     <tableColumn id="11" xr3:uid="{D56700DF-12A3-4F79-A195-B965F394A505}" name="FECHA_TERMINO"/>
     <tableColumn id="12" xr3:uid="{FB515749-7B31-444E-B89C-DB8417084640}" name="TRABAJADORES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76C025EA-2E06-4209-BD9E-970B25455DE5}" name="Tabla2" displayName="Tabla2" ref="A1:L61" totalsRowShown="0">
+  <autoFilter ref="A1:L61" xr:uid="{76C025EA-2E06-4209-BD9E-970B25455DE5}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{4678BD64-2C2F-48CB-9C4A-D4640FD73CD1}" name="NOM_TIPO"/>
+    <tableColumn id="2" xr3:uid="{88B94E1A-BE56-4C83-8EF4-552911A894F7}" name="CONCEPTO"/>
+    <tableColumn id="3" xr3:uid="{0D50DB0B-7E53-4E70-A2D2-0E5A99AF3A07}" name="Descripcion"/>
+    <tableColumn id="4" xr3:uid="{55488C93-CD98-4651-AE95-839557F6E039}" name="IMPORTE" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5AA5CCD9-9E3F-4691-8D4A-DAFDEB4D0294}" name="SALDO"/>
+    <tableColumn id="6" xr3:uid="{BB5BD5E3-075D-487E-93B5-A634D85315CD}" name="SALDO_EXENTO"/>
+    <tableColumn id="7" xr3:uid="{89CEA1E9-AE03-41C8-B846-BBAA7280684B}" name="SALDO_GRAVADO"/>
+    <tableColumn id="8" xr3:uid="{7DF3D5A7-6CFC-482A-97B5-17207ADA74E2}" name="TITULO_REP"/>
+    <tableColumn id="9" xr3:uid="{9E891461-F093-4A33-A23B-1A270253ABB4}" name="NOMINA"/>
+    <tableColumn id="10" xr3:uid="{CD20EC3D-4A75-4E54-BD9D-C6B9996EF928}" name="FECHA_INICIO"/>
+    <tableColumn id="11" xr3:uid="{8771AC8B-88D9-4812-AE7B-5C0F2AB9CBBD}" name="FECHA_TERMINO"/>
+    <tableColumn id="12" xr3:uid="{69C5D4F2-7379-4C39-875C-9E6B1AD935A5}" name="TRABAJADORES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47E39D0-A5E7-4B8C-9DF6-6DB3A8BD5B10}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4030,4 +4065,2352 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4CD298-0135-41FD-9D23-88FB4F3B4309}">
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45717</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45731</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9788880.4199999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9788880.4199999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>223069.97</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>223069.97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>130001.43</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>75719.16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>54282.27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>87979.14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>41050.11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>46929.03</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>175920.02</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>166604.29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9315.73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6687.5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6687.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1010</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>16590.28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6949.1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9641.18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1011</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>557.6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>278.8</v>
+      </c>
+      <c r="G10">
+        <v>278.8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1013</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45687.21</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45687.21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1015</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>146895.89000000001</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>146895.89000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>300617.21999999997</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>300617.21999999997</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>151706.67000000001</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>151706.67000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>55202.400000000001</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>55202.400000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100368</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100368</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1026</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1027</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3">
+        <v>280130</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>280130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1038</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3">
+        <v>582328.43999999994</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1041</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13085.47</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13085.47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1049</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44121.17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44121.17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1050</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>60521.9</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60521.9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2052</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2737.46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1148429.8700000001</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>2002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3">
+        <v>257866.44</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2003</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3">
+        <v>43659.3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>2004</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7362.24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>2005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3">
+        <v>131513.19</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3">
+        <v>576192.63</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>2008</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3">
+        <v>582328.43999999994</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>2009</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="3">
+        <v>582328.43999999994</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>2010</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2528.66</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>2012</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3">
+        <v>59368.99</v>
+      </c>
+      <c r="E34" s="3">
+        <v>97445.6</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>2013</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3">
+        <v>51587.1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>67763.91</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>921.85</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3">
+        <v>122690.58</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>420</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="3">
+        <v>43590.03</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>2026</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="3">
+        <v>35670.31</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>2027</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8664.4</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>2029</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="3">
+        <v>88838.9</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>2030</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="3">
+        <v>56705.440000000002</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>2031</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="3">
+        <v>22329.02</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>2033</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3">
+        <v>646381.9</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>2034</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3">
+        <v>64007.31</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>2035</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>600</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>2039</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>550</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>2040</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4979.51</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>2057</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="3">
+        <v>36760</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2060</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <v>4.34</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>2062</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5712.5</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>3001</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="3">
+        <v>419235.16</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>3002</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1447535.95</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>3003</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1093017.25</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>3004</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="3">
+        <v>663928.48</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="3">
+        <v>12219088.189999999</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4579462.7300000004</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3623716.84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7639625.46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>